--- a/提出書類/詳細設計書.xlsx
+++ b/提出書類/詳細設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7d10\Desktop\ソフトウェア開発②「自動販売機」\drink\提出書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DF8835-7280-4DB6-A1B3-A7FBD851273D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C353513B-C17A-4D91-A03A-445CE6118BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BEED9DE4-747A-4FBB-A3BA-7674A3D7145D}"/>
   </bookViews>
@@ -524,6 +524,33 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -558,33 +585,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9523,8 +9523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624E8641-3217-4E6D-8ADB-B3D1E76505D2}">
   <dimension ref="B1:AI93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10502,44 +10502,44 @@
       <c r="C82" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="41" t="s">
+      <c r="D82" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="42"/>
-      <c r="L82" s="42"/>
-      <c r="M82" s="42"/>
-      <c r="N82" s="42"/>
-      <c r="O82" s="43"/>
-      <c r="P82" s="41" t="s">
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="30"/>
+      <c r="O82" s="31"/>
+      <c r="P82" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Q82" s="43"/>
-      <c r="R82" s="42" t="s">
+      <c r="Q82" s="31"/>
+      <c r="R82" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="S82" s="42"/>
-      <c r="T82" s="43"/>
-      <c r="U82" s="41" t="s">
+      <c r="S82" s="30"/>
+      <c r="T82" s="31"/>
+      <c r="U82" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="V82" s="42"/>
-      <c r="W82" s="42"/>
-      <c r="X82" s="42"/>
-      <c r="Y82" s="42"/>
-      <c r="Z82" s="42"/>
-      <c r="AA82" s="42"/>
-      <c r="AB82" s="42"/>
-      <c r="AC82" s="42"/>
-      <c r="AD82" s="42"/>
-      <c r="AE82" s="42"/>
-      <c r="AF82" s="42"/>
-      <c r="AG82" s="43"/>
+      <c r="V82" s="30"/>
+      <c r="W82" s="30"/>
+      <c r="X82" s="30"/>
+      <c r="Y82" s="30"/>
+      <c r="Z82" s="30"/>
+      <c r="AA82" s="30"/>
+      <c r="AB82" s="30"/>
+      <c r="AC82" s="30"/>
+      <c r="AD82" s="30"/>
+      <c r="AE82" s="30"/>
+      <c r="AF82" s="30"/>
+      <c r="AG82" s="31"/>
       <c r="AI82" s="7"/>
     </row>
     <row r="83" spans="2:35" x14ac:dyDescent="0.4">
@@ -10547,42 +10547,42 @@
       <c r="C83" s="17">
         <v>1</v>
       </c>
-      <c r="D83" s="44" t="s">
+      <c r="D83" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="45"/>
-      <c r="F83" s="45"/>
-      <c r="G83" s="45"/>
-      <c r="H83" s="45"/>
-      <c r="I83" s="45"/>
-      <c r="J83" s="45"/>
-      <c r="K83" s="45"/>
-      <c r="L83" s="45"/>
-      <c r="M83" s="45"/>
-      <c r="N83" s="45"/>
-      <c r="O83" s="46"/>
-      <c r="P83" s="47" t="s">
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="33"/>
+      <c r="L83" s="33"/>
+      <c r="M83" s="33"/>
+      <c r="N83" s="33"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Q83" s="48"/>
-      <c r="R83" s="47" t="s">
+      <c r="Q83" s="36"/>
+      <c r="R83" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="S83" s="49"/>
-      <c r="T83" s="48"/>
-      <c r="U83" s="44"/>
-      <c r="V83" s="45"/>
-      <c r="W83" s="45"/>
-      <c r="X83" s="45"/>
-      <c r="Y83" s="45"/>
-      <c r="Z83" s="45"/>
-      <c r="AA83" s="45"/>
-      <c r="AB83" s="45"/>
-      <c r="AC83" s="45"/>
-      <c r="AD83" s="45"/>
-      <c r="AE83" s="45"/>
-      <c r="AF83" s="45"/>
-      <c r="AG83" s="46"/>
+      <c r="S83" s="37"/>
+      <c r="T83" s="36"/>
+      <c r="U83" s="32"/>
+      <c r="V83" s="33"/>
+      <c r="W83" s="33"/>
+      <c r="X83" s="33"/>
+      <c r="Y83" s="33"/>
+      <c r="Z83" s="33"/>
+      <c r="AA83" s="33"/>
+      <c r="AB83" s="33"/>
+      <c r="AC83" s="33"/>
+      <c r="AD83" s="33"/>
+      <c r="AE83" s="33"/>
+      <c r="AF83" s="33"/>
+      <c r="AG83" s="34"/>
       <c r="AI83" s="7"/>
     </row>
     <row r="84" spans="2:35" x14ac:dyDescent="0.4">
@@ -10602,44 +10602,44 @@
       <c r="C86" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="41" t="s">
+      <c r="D86" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E86" s="42"/>
-      <c r="F86" s="42"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="42"/>
-      <c r="K86" s="42"/>
-      <c r="L86" s="42"/>
-      <c r="M86" s="42"/>
-      <c r="N86" s="42"/>
-      <c r="O86" s="43"/>
-      <c r="P86" s="41" t="s">
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="30"/>
+      <c r="M86" s="30"/>
+      <c r="N86" s="30"/>
+      <c r="O86" s="31"/>
+      <c r="P86" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Q86" s="43"/>
-      <c r="R86" s="42" t="s">
+      <c r="Q86" s="31"/>
+      <c r="R86" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="S86" s="42"/>
-      <c r="T86" s="43"/>
-      <c r="U86" s="41" t="s">
+      <c r="S86" s="30"/>
+      <c r="T86" s="31"/>
+      <c r="U86" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="V86" s="42"/>
-      <c r="W86" s="42"/>
-      <c r="X86" s="42"/>
-      <c r="Y86" s="42"/>
-      <c r="Z86" s="42"/>
-      <c r="AA86" s="42"/>
-      <c r="AB86" s="42"/>
-      <c r="AC86" s="42"/>
-      <c r="AD86" s="42"/>
-      <c r="AE86" s="42"/>
-      <c r="AF86" s="42"/>
-      <c r="AG86" s="43"/>
+      <c r="V86" s="30"/>
+      <c r="W86" s="30"/>
+      <c r="X86" s="30"/>
+      <c r="Y86" s="30"/>
+      <c r="Z86" s="30"/>
+      <c r="AA86" s="30"/>
+      <c r="AB86" s="30"/>
+      <c r="AC86" s="30"/>
+      <c r="AD86" s="30"/>
+      <c r="AE86" s="30"/>
+      <c r="AF86" s="30"/>
+      <c r="AG86" s="31"/>
       <c r="AI86" s="7"/>
     </row>
     <row r="87" spans="2:35" x14ac:dyDescent="0.4">
@@ -10647,44 +10647,44 @@
       <c r="C87" s="22">
         <v>1</v>
       </c>
-      <c r="D87" s="35" t="s">
+      <c r="D87" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="37"/>
-      <c r="P87" s="38" t="s">
+      <c r="E87" s="45"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="45"/>
+      <c r="L87" s="45"/>
+      <c r="M87" s="45"/>
+      <c r="N87" s="45"/>
+      <c r="O87" s="46"/>
+      <c r="P87" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="Q87" s="39"/>
-      <c r="R87" s="38" t="s">
+      <c r="Q87" s="48"/>
+      <c r="R87" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="S87" s="40"/>
-      <c r="T87" s="39"/>
-      <c r="U87" s="35" t="s">
+      <c r="S87" s="49"/>
+      <c r="T87" s="48"/>
+      <c r="U87" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="V87" s="36"/>
-      <c r="W87" s="36"/>
-      <c r="X87" s="36"/>
-      <c r="Y87" s="36"/>
-      <c r="Z87" s="36"/>
-      <c r="AA87" s="36"/>
-      <c r="AB87" s="36"/>
-      <c r="AC87" s="36"/>
-      <c r="AD87" s="36"/>
-      <c r="AE87" s="36"/>
-      <c r="AF87" s="36"/>
-      <c r="AG87" s="37"/>
+      <c r="V87" s="45"/>
+      <c r="W87" s="45"/>
+      <c r="X87" s="45"/>
+      <c r="Y87" s="45"/>
+      <c r="Z87" s="45"/>
+      <c r="AA87" s="45"/>
+      <c r="AB87" s="45"/>
+      <c r="AC87" s="45"/>
+      <c r="AD87" s="45"/>
+      <c r="AE87" s="45"/>
+      <c r="AF87" s="45"/>
+      <c r="AG87" s="46"/>
       <c r="AI87" s="7"/>
     </row>
     <row r="88" spans="2:35" x14ac:dyDescent="0.4">
@@ -10693,42 +10693,42 @@
         <f t="shared" ref="C88:C91" si="0">C87+1</f>
         <v>2</v>
       </c>
-      <c r="D88" s="44" t="s">
+      <c r="D88" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="45"/>
-      <c r="I88" s="45"/>
-      <c r="J88" s="45"/>
-      <c r="K88" s="45"/>
-      <c r="L88" s="45"/>
-      <c r="M88" s="45"/>
-      <c r="N88" s="45"/>
-      <c r="O88" s="46"/>
-      <c r="P88" s="47" t="s">
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="33"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Q88" s="48"/>
-      <c r="R88" s="47" t="s">
+      <c r="Q88" s="36"/>
+      <c r="R88" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="S88" s="49"/>
-      <c r="T88" s="48"/>
-      <c r="U88" s="44"/>
-      <c r="V88" s="45"/>
-      <c r="W88" s="45"/>
-      <c r="X88" s="45"/>
-      <c r="Y88" s="45"/>
-      <c r="Z88" s="45"/>
-      <c r="AA88" s="45"/>
-      <c r="AB88" s="45"/>
-      <c r="AC88" s="45"/>
-      <c r="AD88" s="45"/>
-      <c r="AE88" s="45"/>
-      <c r="AF88" s="45"/>
-      <c r="AG88" s="46"/>
+      <c r="S88" s="37"/>
+      <c r="T88" s="36"/>
+      <c r="U88" s="32"/>
+      <c r="V88" s="33"/>
+      <c r="W88" s="33"/>
+      <c r="X88" s="33"/>
+      <c r="Y88" s="33"/>
+      <c r="Z88" s="33"/>
+      <c r="AA88" s="33"/>
+      <c r="AB88" s="33"/>
+      <c r="AC88" s="33"/>
+      <c r="AD88" s="33"/>
+      <c r="AE88" s="33"/>
+      <c r="AF88" s="33"/>
+      <c r="AG88" s="34"/>
       <c r="AI88" s="7"/>
     </row>
     <row r="89" spans="2:35" x14ac:dyDescent="0.4">
@@ -10737,42 +10737,42 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D89" s="29" t="s">
+      <c r="D89" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="30"/>
-      <c r="L89" s="30"/>
-      <c r="M89" s="30"/>
-      <c r="N89" s="30"/>
-      <c r="O89" s="31"/>
-      <c r="P89" s="32" t="s">
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="39"/>
+      <c r="M89" s="39"/>
+      <c r="N89" s="39"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Q89" s="33"/>
-      <c r="R89" s="32" t="s">
+      <c r="Q89" s="42"/>
+      <c r="R89" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="S89" s="34"/>
-      <c r="T89" s="33"/>
-      <c r="U89" s="29"/>
-      <c r="V89" s="30"/>
-      <c r="W89" s="30"/>
-      <c r="X89" s="30"/>
-      <c r="Y89" s="30"/>
-      <c r="Z89" s="30"/>
-      <c r="AA89" s="30"/>
-      <c r="AB89" s="30"/>
-      <c r="AC89" s="30"/>
-      <c r="AD89" s="30"/>
-      <c r="AE89" s="30"/>
-      <c r="AF89" s="30"/>
-      <c r="AG89" s="31"/>
+      <c r="S89" s="43"/>
+      <c r="T89" s="42"/>
+      <c r="U89" s="38"/>
+      <c r="V89" s="39"/>
+      <c r="W89" s="39"/>
+      <c r="X89" s="39"/>
+      <c r="Y89" s="39"/>
+      <c r="Z89" s="39"/>
+      <c r="AA89" s="39"/>
+      <c r="AB89" s="39"/>
+      <c r="AC89" s="39"/>
+      <c r="AD89" s="39"/>
+      <c r="AE89" s="39"/>
+      <c r="AF89" s="39"/>
+      <c r="AG89" s="40"/>
       <c r="AI89" s="7"/>
     </row>
     <row r="90" spans="2:35" x14ac:dyDescent="0.4">
@@ -10781,42 +10781,42 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D90" s="29" t="s">
+      <c r="D90" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="30"/>
-      <c r="L90" s="30"/>
-      <c r="M90" s="30"/>
-      <c r="N90" s="30"/>
-      <c r="O90" s="31"/>
-      <c r="P90" s="32" t="s">
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39"/>
+      <c r="M90" s="39"/>
+      <c r="N90" s="39"/>
+      <c r="O90" s="40"/>
+      <c r="P90" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Q90" s="33"/>
-      <c r="R90" s="32" t="s">
+      <c r="Q90" s="42"/>
+      <c r="R90" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="S90" s="34"/>
-      <c r="T90" s="33"/>
-      <c r="U90" s="29"/>
-      <c r="V90" s="30"/>
-      <c r="W90" s="30"/>
-      <c r="X90" s="30"/>
-      <c r="Y90" s="30"/>
-      <c r="Z90" s="30"/>
-      <c r="AA90" s="30"/>
-      <c r="AB90" s="30"/>
-      <c r="AC90" s="30"/>
-      <c r="AD90" s="30"/>
-      <c r="AE90" s="30"/>
-      <c r="AF90" s="30"/>
-      <c r="AG90" s="31"/>
+      <c r="S90" s="43"/>
+      <c r="T90" s="42"/>
+      <c r="U90" s="38"/>
+      <c r="V90" s="39"/>
+      <c r="W90" s="39"/>
+      <c r="X90" s="39"/>
+      <c r="Y90" s="39"/>
+      <c r="Z90" s="39"/>
+      <c r="AA90" s="39"/>
+      <c r="AB90" s="39"/>
+      <c r="AC90" s="39"/>
+      <c r="AD90" s="39"/>
+      <c r="AE90" s="39"/>
+      <c r="AF90" s="39"/>
+      <c r="AG90" s="40"/>
       <c r="AI90" s="7"/>
     </row>
     <row r="91" spans="2:35" x14ac:dyDescent="0.4">
@@ -10825,42 +10825,42 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D91" s="29" t="s">
+      <c r="D91" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="30"/>
-      <c r="K91" s="30"/>
-      <c r="L91" s="30"/>
-      <c r="M91" s="30"/>
-      <c r="N91" s="30"/>
-      <c r="O91" s="31"/>
-      <c r="P91" s="32" t="s">
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="39"/>
+      <c r="M91" s="39"/>
+      <c r="N91" s="39"/>
+      <c r="O91" s="40"/>
+      <c r="P91" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="Q91" s="33"/>
-      <c r="R91" s="32" t="s">
+      <c r="Q91" s="42"/>
+      <c r="R91" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="34"/>
-      <c r="T91" s="33"/>
-      <c r="U91" s="29"/>
-      <c r="V91" s="30"/>
-      <c r="W91" s="30"/>
-      <c r="X91" s="30"/>
-      <c r="Y91" s="30"/>
-      <c r="Z91" s="30"/>
-      <c r="AA91" s="30"/>
-      <c r="AB91" s="30"/>
-      <c r="AC91" s="30"/>
-      <c r="AD91" s="30"/>
-      <c r="AE91" s="30"/>
-      <c r="AF91" s="30"/>
-      <c r="AG91" s="31"/>
+      <c r="S91" s="43"/>
+      <c r="T91" s="42"/>
+      <c r="U91" s="38"/>
+      <c r="V91" s="39"/>
+      <c r="W91" s="39"/>
+      <c r="X91" s="39"/>
+      <c r="Y91" s="39"/>
+      <c r="Z91" s="39"/>
+      <c r="AA91" s="39"/>
+      <c r="AB91" s="39"/>
+      <c r="AC91" s="39"/>
+      <c r="AD91" s="39"/>
+      <c r="AE91" s="39"/>
+      <c r="AF91" s="39"/>
+      <c r="AG91" s="40"/>
       <c r="AI91" s="7"/>
     </row>
     <row r="92" spans="2:35" x14ac:dyDescent="0.4">
@@ -10905,22 +10905,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R82:T82"/>
-    <mergeCell ref="U82:AG82"/>
-    <mergeCell ref="D83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:T83"/>
-    <mergeCell ref="U83:AG83"/>
-    <mergeCell ref="D86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="R86:T86"/>
-    <mergeCell ref="U86:AG86"/>
-    <mergeCell ref="D88:O88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="R88:T88"/>
-    <mergeCell ref="U88:AG88"/>
     <mergeCell ref="D91:O91"/>
     <mergeCell ref="P91:Q91"/>
     <mergeCell ref="R91:T91"/>
@@ -10937,11 +10921,28 @@
     <mergeCell ref="P89:Q89"/>
     <mergeCell ref="R89:T89"/>
     <mergeCell ref="U89:AG89"/>
+    <mergeCell ref="D86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="R86:T86"/>
+    <mergeCell ref="U86:AG86"/>
+    <mergeCell ref="D88:O88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="R88:T88"/>
+    <mergeCell ref="U88:AG88"/>
+    <mergeCell ref="D82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:T82"/>
+    <mergeCell ref="U82:AG82"/>
+    <mergeCell ref="D83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:T83"/>
+    <mergeCell ref="U83:AG83"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.62992125984251968" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="42" max="34" man="1"/>
     <brk id="78" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
